--- a/Excel - Project 07.xlsx
+++ b/Excel - Project 07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooschool-my.sharepoint.com/personal/thuong_vo_bambooschool_edu_vn/Documents/2024 - 2025/2. CHUYÊN MÔN/MOS 2019/MOS Excel 2019/Project 7 MOS Excel 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel2019_Project4_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{42ABAC2F-D40B-4894-A9B9-9BE3A0465643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898CE015-DE80-435D-A9C8-2807BA349E57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616C403-9818-4984-9174-E94BA68E9C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{3B5558ED-EA98-4D35-AFB1-B14104F0596C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{3B5558ED-EA98-4D35-AFB1-B14104F0596C}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="4" r:id="rId1"/>
@@ -766,8 +766,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3" xr:uid="{9A7AC8C1-5E91-4861-946A-44FE04E3D636}"/>
@@ -776,355 +776,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="51">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1438,7 +1089,570 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -1486,223 +1700,9 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -3458,11 +3458,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Subcribe Results'!$B$3</c:f>
+              <c:f>'Subcribe Results'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Registered</c:v>
+                  <c:v>IC3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3492,12 +3492,55 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Registered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subcribe Results'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C42F-43DD-87BC-945662200768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IELTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -3511,18 +3554,56 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D359-4444-B1C6-EC9266FCB69E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Registered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subcribe Results'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>53571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1B3B-427A-9E19-F68533A5FEC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -3536,18 +3617,56 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D359-4444-B1C6-EC9266FCB69E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Registered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subcribe Results'!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1B3B-427A-9E19-F68533A5FEC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subcribe Results'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOEIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -3561,48 +3680,25 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D359-4444-B1C6-EC9266FCB69E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Subcribe Results'!$A$4:$A$7</c:f>
+              <c:f>'Subcribe Results'!$B$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IC3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IELTS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MOS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TOEIC</c:v>
+                  <c:v>Registered</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Subcribe Results'!$B$4:$B$7</c:f>
+              <c:f>'Subcribe Results'!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>54477</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52624</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>56110</c:v>
                 </c:pt>
               </c:numCache>
@@ -3610,7 +3706,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C42F-43DD-87BC-945662200768}"/>
+              <c16:uniqueId val="{0000000A-1B3B-427A-9E19-F68533A5FEC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6072,19 +6168,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B2BBB874-9998-478E-A6F4-558A00B94501}" name="Table5" displayName="Table5" ref="A3:M8" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A3:M7" xr:uid="{EFA123C8-64A3-4E7C-9985-C28A04A26884}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{67288C0B-DAA7-45D8-9AA0-A51D105D2A93}" name="Exam" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{90A80ABE-9527-4DC6-80A9-EAF85FA32709}" name="January" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{89E68011-EBB6-413D-AA25-DB8880F73F88}" name="February" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{22527A9C-CE7E-4D96-AF74-D9D9AD0ADEC6}" name="March" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{14103C14-7F38-43F3-B5D4-9908D7DF8578}" name="April" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{E62F6BB0-D8A8-4244-B333-05C385DFDF6F}" name="May" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{924F028B-9A1B-4B79-9192-D3DCE62F8408}" name="June" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{68FA9F6C-E6B5-4A04-84E9-230B572361DF}" name="July" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{79479519-68CD-4717-BA6B-433F799F9DF6}" name="August" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{04DC7195-7BFE-49E2-8394-BEEB89FDDDDB}" name="September" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{F0028B68-E37E-431C-8A5F-83B71A462655}" name="October" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{EA6DA828-1BA4-4A3B-95AB-14050C1CB202}" name="November" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{B94B0312-56C4-4335-9889-EE0D8FD0CFBC}" name="December" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{67288C0B-DAA7-45D8-9AA0-A51D105D2A93}" name="Exam" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{90A80ABE-9527-4DC6-80A9-EAF85FA32709}" name="January" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{89E68011-EBB6-413D-AA25-DB8880F73F88}" name="February" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{22527A9C-CE7E-4D96-AF74-D9D9AD0ADEC6}" name="March" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{14103C14-7F38-43F3-B5D4-9908D7DF8578}" name="April" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{E62F6BB0-D8A8-4244-B333-05C385DFDF6F}" name="May" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{924F028B-9A1B-4B79-9192-D3DCE62F8408}" name="June" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{68FA9F6C-E6B5-4A04-84E9-230B572361DF}" name="July" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{79479519-68CD-4717-BA6B-433F799F9DF6}" name="August" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{04DC7195-7BFE-49E2-8394-BEEB89FDDDDB}" name="September" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{F0028B68-E37E-431C-8A5F-83B71A462655}" name="October" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{EA6DA828-1BA4-4A3B-95AB-14050C1CB202}" name="November" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{B94B0312-56C4-4335-9889-EE0D8FD0CFBC}" name="December" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6096,33 +6192,33 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F4D0B4AD-6773-4114-9544-C008C92DCD04}" name="Category" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{5D8BD3C7-D3BD-4D57-A80F-50764E0D5CA9}" name="Subcategory"/>
-    <tableColumn id="3" xr3:uid="{3C01ABEF-B5CA-4E22-A243-C799F2D40267}" name="Jan" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{FF81069D-0D9B-4E7B-8ADA-2E562777ECEC}" name="Feb" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{A0FD3BB6-266A-4947-8FE8-73296883F54B}" name="Mar" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{49181824-49A6-4192-9C7C-4AED25D501D0}" name="Apr" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{8E3FD57A-6CE9-46E2-8EE3-6E3702904EAA}" name="May" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="3" xr3:uid="{3C01ABEF-B5CA-4E22-A243-C799F2D40267}" name="Jan" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FF81069D-0D9B-4E7B-8ADA-2E562777ECEC}" name="Feb" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A0FD3BB6-266A-4947-8FE8-73296883F54B}" name="Mar" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{49181824-49A6-4192-9C7C-4AED25D501D0}" name="Apr" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{8E3FD57A-6CE9-46E2-8EE3-6E3702904EAA}" name="May" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>SUM(Table4[[#This Row],[Jan]:[Apr]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BB010216-4D53-4AF7-BF91-D61A3E544DE3}" name="Monthly Average" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{BB010216-4D53-4AF7-BF91-D61A3E544DE3}" name="Monthly Average" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="9" xr3:uid="{6688F4A5-EBC6-4092-B72C-751E7B244DA9}" name="Total Level %" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[May]]/Table4[[#This Row],[Monthly Average]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{14998DE1-D968-4FDC-AA73-587F9CCDFCEC}" name="Total Notice" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{14998DE1-D968-4FDC-AA73-587F9CCDFCEC}" name="Total Notice" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3698665F-2D54-4899-996D-D59195580BDC}" name="Table6" displayName="Table6" ref="A3:F21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3698665F-2D54-4899-996D-D59195580BDC}" name="Table6" displayName="Table6" ref="A3:F21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A3:F21" xr:uid="{05F03A83-CF49-45CD-90FC-E81139C48096}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E34B03-B2C4-4AAD-A8E2-EDA01A53D123}" name="Program" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{30090B29-D7A1-49D0-9952-EE1E8A208140}" name="Course" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{07B8686D-0B28-4B94-A704-05173D0CD315}" name="Registered Students" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{1A2C275D-6363-4B50-A6BE-CEEC493C246C}" name="Tutors Available" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{3F3A1A52-666F-4984-AEC8-B4388A6510C6}" name="Average cost per student" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{DE98307F-FE26-42DF-967E-677B68A57FFC}" name="Total" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{68E34B03-B2C4-4AAD-A8E2-EDA01A53D123}" name="Program" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{30090B29-D7A1-49D0-9952-EE1E8A208140}" name="Course" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{07B8686D-0B28-4B94-A704-05173D0CD315}" name="Registered Students" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1A2C275D-6363-4B50-A6BE-CEEC493C246C}" name="Tutors Available" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3F3A1A52-666F-4984-AEC8-B4388A6510C6}" name="Average cost per student" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DE98307F-FE26-42DF-967E-677B68A57FFC}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>Table6[[#This Row],[Registered Students]]*Table6[[#This Row],[Average cost per student]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6433,19 +6529,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.31640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="2" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6454,7 +6550,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:8" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
@@ -6465,11 +6561,11 @@
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
         <v>48</v>
@@ -6480,13 +6576,13 @@
       <c r="G5" s="14"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="7" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="D7" s="16" t="s">
         <v>37</v>
@@ -6495,40 +6591,40 @@
       <c r="F7" s="15"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="D8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="D9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="D10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="17" t="s">
         <v>41</v>
@@ -6541,7 +6637,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="18" t="s">
         <v>53</v>
@@ -6561,7 +6657,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="18" t="s">
         <v>54</v>
@@ -6581,7 +6677,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18" t="s">
         <v>55</v>
@@ -6601,7 +6697,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19" t="str">
@@ -6620,7 +6716,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -6632,7 +6728,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -6644,7 +6740,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -6656,7 +6752,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
@@ -6668,7 +6764,7 @@
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -6680,7 +6776,7 @@
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
@@ -6692,7 +6788,7 @@
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="2:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11"/>
       <c r="E23" s="22"/>
       <c r="F23" s="21"/>
@@ -6702,7 +6798,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="F24" s="24" t="s">
         <v>46</v>
@@ -6713,7 +6809,7 @@
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="2:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="F25" s="26" t="s">
         <v>47</v>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -6734,11 +6830,11 @@
       <c r="G26" s="29"/>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="2:8" ht="16.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.75"/>
+    <row r="28" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E8:F8"/>
@@ -6764,21 +6860,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.31640625" customWidth="1"/>
-    <col min="2" max="2" width="12.2265625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6789,7 +6885,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6797,7 +6893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +6901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6813,7 +6909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6830,16 +6926,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B2284B-78D0-4715-8696-4824BF494C13}">
   <dimension ref="A3:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6880,171 +6976,171 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>3929</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>5098</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>2928</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>6128</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>2785</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <v>7063</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>2547</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>5546</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>3188</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>4488</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="39">
         <v>5566</v>
       </c>
       <c r="M4" s="4">
         <v>5211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>5877</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>3846</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>4471</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>4476</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>1861</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>4829</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>6747</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>3078</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>5955</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>5048</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <v>4156</v>
       </c>
       <c r="M5" s="4">
         <v>3227</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>3270</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>5465</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>3811</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>3258</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>4092</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>3671</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <v>6105</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>4773</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="39">
         <v>3420</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <v>1930</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="39">
         <v>6539</v>
       </c>
       <c r="M6" s="4">
         <v>6290</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>5222</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>3966</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>3323</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>4727</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>4672</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <v>6204</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="39">
         <v>4884</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>4281</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="39">
         <v>5654</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="39">
         <v>4124</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="39">
         <v>3347</v>
       </c>
       <c r="M7" s="4">
         <v>5706</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7115,23 +7211,23 @@
       <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.2265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.31640625" customWidth="1"/>
-    <col min="3" max="6" width="18.2265625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.08984375" customWidth="1"/>
     <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7163,7 +7259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7193,7 +7289,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -7220,7 +7316,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7250,7 +7346,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -7277,7 +7373,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -7317,28 +7413,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51596C52-85E2-4A1C-8701-65E0DD2C368A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -7346,7 +7442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -7354,7 +7450,7 @@
         <v>54477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -7362,7 +7458,7 @@
         <v>53571</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -7370,7 +7466,7 @@
         <v>52624</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -7389,32 +7485,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480995B-CC74-4D7F-AB6C-E62EA3EAF679}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6796875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.76953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.6796875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.6328125" style="34" customWidth="1"/>
     <col min="7" max="8" width="9.08984375" style="34"/>
     <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="34" customWidth="1"/>
     <col min="11" max="16384" width="9.08984375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="36" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>60</v>
       </c>
@@ -7434,7 +7530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>64</v>
       </c>
@@ -7455,7 +7551,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>65</v>
       </c>
@@ -7476,7 +7572,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
@@ -7497,7 +7593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>67</v>
       </c>
@@ -7518,7 +7614,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>68</v>
       </c>
@@ -7539,7 +7635,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>69</v>
       </c>
@@ -7560,7 +7656,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>70</v>
       </c>
@@ -7581,7 +7677,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>71</v>
       </c>
@@ -7602,7 +7698,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>72</v>
       </c>
@@ -7623,7 +7719,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>73</v>
       </c>
@@ -7644,7 +7740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>74</v>
       </c>
@@ -7665,7 +7761,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>75</v>
       </c>
@@ -7686,7 +7782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>76</v>
       </c>
@@ -7707,7 +7803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>77</v>
       </c>
@@ -7728,7 +7824,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>78</v>
       </c>
@@ -7749,7 +7845,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
         <v>79</v>
       </c>
@@ -7770,7 +7866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>80</v>
       </c>
@@ -7791,7 +7887,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>81</v>
       </c>
